--- a/Config_file.xlsx
+++ b/Config_file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a93f2051e428739e/Documents/UiPath/EmailMonitoring/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a93f2051e428739e/Documents/UiPath/Email_Monitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{863AC903-2EE6-4DA8-991D-89007C118B97}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A053986D-06C5-4DD0-AFD7-225B519ABE51}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>MaxEmailNumber</t>
+  </si>
+  <si>
+    <t>RPA Support team email address</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Email Body</t>
+  </si>
+  <si>
+    <t>Bot Machine-dynamic</t>
   </si>
 </sst>
 </file>
@@ -500,7 +512,7 @@
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -601,9 +613,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
